--- a/medicine/Médecine vétérinaire/Trichuris_vulpis/Trichuris_vulpis.xlsx
+++ b/medicine/Médecine vétérinaire/Trichuris_vulpis/Trichuris_vulpis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichuris vulpis est une espèce de nématodes de la famille des Trichuridae. Ce parasite infecte le chien, le renard, l'humain et le porc.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Trichuris vulpis a été initialement décrite en 1789 par le botaniste, médecin et entomologiste allemand Joseph Aloys von Froelich (d) (1766-1841) sous le protonyme de Trichocephalus vulpis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Trichuris vulpis a été initialement décrite en 1789 par le botaniste, médecin et entomologiste allemand Joseph Aloys von Froelich (d) (1766-1841) sous le protonyme de Trichocephalus vulpis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Espèces parasitées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trichuris vulpis est un parasite du chien et du renard[2] — tel que le Renard véloce[3],[4] —, du porc et de l'humain[5]. Sa prévalence est de 15 % chez le chien[5] et de 28 à 57,8 % des chiens parasités par des helminthes[2]. Trichuris vulpis infecte l'humain surtout dans les régions chaudes et humides[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trichuris vulpis est un parasite du chien et du renard — tel que le Renard véloce, —, du porc et de l'humain. Sa prévalence est de 15 % chez le chien et de 28 à 57,8 % des chiens parasités par des helminthes. Trichuris vulpis infecte l'humain surtout dans les régions chaudes et humides.
 </t>
         </is>
       </c>
@@ -573,10 +589,12 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contrairement à de nombreux parasites, l'âge n'est pas un facteur de risque. Les animaux d'élevage sont plus exposés que les individus isolés. C'est un parasite bénin, hormis chez les sujets fragilisés[2].
-Le ver de couleur rosée mesure environ 3 à 7,5 cm. La femelle pond en moyenne 2 000 œufs par jour. Les œufs sont résistants, leur durée de vie est longue et ils sont très difficiles à éliminer. Ils éclosent après huit jours à plusieurs mois et deviennent infectants[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contrairement à de nombreux parasites, l'âge n'est pas un facteur de risque. Les animaux d'élevage sont plus exposés que les individus isolés. C'est un parasite bénin, hormis chez les sujets fragilisés.
+Le ver de couleur rosée mesure environ 3 à 7,5 cm. La femelle pond en moyenne 2 000 œufs par jour. Les œufs sont résistants, leur durée de vie est longue et ils sont très difficiles à éliminer. Ils éclosent après huit jours à plusieurs mois et deviennent infectants.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son épithète spécifique, vulpis, fait référence au genre Vulpes (les renards).
 </t>
